--- a/dfsinservicioSMA.xlsx
+++ b/dfsinservicioSMA.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:J307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +403,11 @@
           <t>cuentasInt</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>lineStf</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -444,6 +449,9 @@
       <c r="I2">
         <v>63</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,6 +493,9 @@
       <c r="I3">
         <v>1189</v>
       </c>
+      <c r="J3">
+        <v>219</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -526,6 +537,9 @@
       <c r="I4">
         <v>1084</v>
       </c>
+      <c r="J4">
+        <v>2339</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +581,9 @@
       <c r="I5">
         <v>154</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -608,6 +625,9 @@
       <c r="I6">
         <v>1054</v>
       </c>
+      <c r="J6">
+        <v>1668</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -649,6 +669,9 @@
       <c r="I7">
         <v>9</v>
       </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -690,6 +713,9 @@
       <c r="I8">
         <v>32</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -731,6 +757,9 @@
       <c r="I9">
         <v>14</v>
       </c>
+      <c r="J9">
+        <v>37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -772,6 +801,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -813,6 +845,9 @@
       <c r="I11">
         <v>26</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -854,6 +889,9 @@
       <c r="I12">
         <v>5</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -895,6 +933,9 @@
       <c r="I13">
         <v>27</v>
       </c>
+      <c r="J13">
+        <v>54</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -936,6 +977,9 @@
       <c r="I14">
         <v>7</v>
       </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -977,6 +1021,9 @@
       <c r="I15">
         <v>2</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1018,6 +1065,9 @@
       <c r="I16">
         <v>40</v>
       </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1059,6 +1109,9 @@
       <c r="I17">
         <v>65</v>
       </c>
+      <c r="J17">
+        <v>145</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1100,6 +1153,9 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="J18">
+        <v>153</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1141,6 +1197,9 @@
       <c r="I19">
         <v>0</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1182,6 +1241,9 @@
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1223,6 +1285,9 @@
       <c r="I21">
         <v>21</v>
       </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1264,6 +1329,9 @@
       <c r="I22">
         <v>24</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1305,6 +1373,9 @@
       <c r="I23">
         <v>31</v>
       </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1346,6 +1417,9 @@
       <c r="I24">
         <v>22</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1387,6 +1461,9 @@
       <c r="I25">
         <v>42</v>
       </c>
+      <c r="J25">
+        <v>148</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1428,6 +1505,9 @@
       <c r="I26">
         <v>162</v>
       </c>
+      <c r="J26">
+        <v>36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1469,6 +1549,9 @@
       <c r="I27">
         <v>57</v>
       </c>
+      <c r="J27">
+        <v>56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1510,6 +1593,9 @@
       <c r="I28">
         <v>19</v>
       </c>
+      <c r="J28">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1551,6 +1637,9 @@
       <c r="I29">
         <v>0</v>
       </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1592,6 +1681,9 @@
       <c r="I30">
         <v>154</v>
       </c>
+      <c r="J30">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1633,6 +1725,9 @@
       <c r="I31">
         <v>124</v>
       </c>
+      <c r="J31">
+        <v>63</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1674,6 +1769,9 @@
       <c r="I32">
         <v>34</v>
       </c>
+      <c r="J32">
+        <v>39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1715,6 +1813,9 @@
       <c r="I33">
         <v>21</v>
       </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1756,6 +1857,9 @@
       <c r="I34">
         <v>3</v>
       </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1797,6 +1901,9 @@
       <c r="I35">
         <v>6</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1838,6 +1945,9 @@
       <c r="I36">
         <v>28</v>
       </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1879,6 +1989,9 @@
       <c r="I37">
         <v>40</v>
       </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1920,6 +2033,9 @@
       <c r="I38">
         <v>339</v>
       </c>
+      <c r="J38">
+        <v>124</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1961,6 +2077,9 @@
       <c r="I39">
         <v>42</v>
       </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2002,6 +2121,9 @@
       <c r="I40">
         <v>5</v>
       </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2043,6 +2165,9 @@
       <c r="I41">
         <v>99</v>
       </c>
+      <c r="J41">
+        <v>88</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2084,6 +2209,9 @@
       <c r="I42">
         <v>75</v>
       </c>
+      <c r="J42">
+        <v>121</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2125,6 +2253,9 @@
       <c r="I43">
         <v>112</v>
       </c>
+      <c r="J43">
+        <v>68</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2166,6 +2297,9 @@
       <c r="I44">
         <v>91</v>
       </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2207,6 +2341,9 @@
       <c r="I45">
         <v>50</v>
       </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2248,6 +2385,9 @@
       <c r="I46">
         <v>50</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2289,6 +2429,9 @@
       <c r="I47">
         <v>107</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2330,6 +2473,9 @@
       <c r="I48">
         <v>84</v>
       </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2371,6 +2517,9 @@
       <c r="I49">
         <v>180</v>
       </c>
+      <c r="J49">
+        <v>47</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2412,6 +2561,9 @@
       <c r="I50">
         <v>258</v>
       </c>
+      <c r="J50">
+        <v>95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2453,6 +2605,9 @@
       <c r="I51">
         <v>48</v>
       </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2494,6 +2649,9 @@
       <c r="I52">
         <v>336</v>
       </c>
+      <c r="J52">
+        <v>307</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2535,6 +2693,9 @@
       <c r="I53">
         <v>223</v>
       </c>
+      <c r="J53">
+        <v>313</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2576,6 +2737,9 @@
       <c r="I54">
         <v>45</v>
       </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2617,6 +2781,9 @@
       <c r="I55">
         <v>67</v>
       </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2658,6 +2825,9 @@
       <c r="I56">
         <v>29</v>
       </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2699,6 +2869,9 @@
       <c r="I57">
         <v>772</v>
       </c>
+      <c r="J57">
+        <v>158</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2740,6 +2913,9 @@
       <c r="I58">
         <v>56</v>
       </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2781,6 +2957,9 @@
       <c r="I59">
         <v>231</v>
       </c>
+      <c r="J59">
+        <v>167</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2822,6 +3001,9 @@
       <c r="I60">
         <v>1</v>
       </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2863,6 +3045,9 @@
       <c r="I61">
         <v>8</v>
       </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2904,6 +3089,9 @@
       <c r="I62">
         <v>4</v>
       </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2945,6 +3133,9 @@
       <c r="I63">
         <v>0</v>
       </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2986,6 +3177,9 @@
       <c r="I64">
         <v>5</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3027,6 +3221,9 @@
       <c r="I65">
         <v>25</v>
       </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3068,6 +3265,9 @@
       <c r="I66">
         <v>15</v>
       </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3109,6 +3309,9 @@
       <c r="I67">
         <v>39</v>
       </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3150,6 +3353,9 @@
       <c r="I68">
         <v>10</v>
       </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3191,6 +3397,9 @@
       <c r="I69">
         <v>112</v>
       </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3232,6 +3441,9 @@
       <c r="I70">
         <v>115</v>
       </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3273,6 +3485,9 @@
       <c r="I71">
         <v>527</v>
       </c>
+      <c r="J71">
+        <v>128</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3314,6 +3529,9 @@
       <c r="I72">
         <v>111</v>
       </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3355,6 +3573,9 @@
       <c r="I73">
         <v>2</v>
       </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3396,6 +3617,9 @@
       <c r="I74">
         <v>220</v>
       </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3437,6 +3661,9 @@
       <c r="I75">
         <v>111</v>
       </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3478,6 +3705,9 @@
       <c r="I76">
         <v>52</v>
       </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3519,6 +3749,9 @@
       <c r="I77">
         <v>34</v>
       </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3560,6 +3793,9 @@
       <c r="I78">
         <v>10</v>
       </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3601,6 +3837,9 @@
       <c r="I79">
         <v>174</v>
       </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3642,6 +3881,9 @@
       <c r="I80">
         <v>1</v>
       </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3683,6 +3925,9 @@
       <c r="I81">
         <v>25</v>
       </c>
+      <c r="J81">
+        <v>78</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3724,6 +3969,9 @@
       <c r="I82">
         <v>4</v>
       </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3765,6 +4013,9 @@
       <c r="I83">
         <v>1</v>
       </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3806,6 +4057,9 @@
       <c r="I84">
         <v>9</v>
       </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3847,6 +4101,9 @@
       <c r="I85">
         <v>1</v>
       </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3888,6 +4145,9 @@
       <c r="I86">
         <v>3</v>
       </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3929,6 +4189,9 @@
       <c r="I87">
         <v>0</v>
       </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3970,6 +4233,9 @@
       <c r="I88">
         <v>99</v>
       </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4011,6 +4277,9 @@
       <c r="I89">
         <v>0</v>
       </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4052,6 +4321,9 @@
       <c r="I90">
         <v>25</v>
       </c>
+      <c r="J90">
+        <v>71</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4093,6 +4365,9 @@
       <c r="I91">
         <v>0</v>
       </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4134,6 +4409,9 @@
       <c r="I92">
         <v>0</v>
       </c>
+      <c r="J92">
+        <v>175</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4175,6 +4453,9 @@
       <c r="I93">
         <v>0</v>
       </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4216,6 +4497,9 @@
       <c r="I94">
         <v>21</v>
       </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4257,6 +4541,9 @@
       <c r="I95">
         <v>33</v>
       </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4298,6 +4585,9 @@
       <c r="I96">
         <v>0</v>
       </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4339,6 +4629,9 @@
       <c r="I97">
         <v>61</v>
       </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4380,6 +4673,9 @@
       <c r="I98">
         <v>53</v>
       </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4421,6 +4717,9 @@
       <c r="I99">
         <v>73</v>
       </c>
+      <c r="J99">
+        <v>107</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4462,6 +4761,9 @@
       <c r="I100">
         <v>49</v>
       </c>
+      <c r="J100">
+        <v>200</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4503,6 +4805,9 @@
       <c r="I101">
         <v>42</v>
       </c>
+      <c r="J101">
+        <v>65</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4544,6 +4849,9 @@
       <c r="I102">
         <v>85</v>
       </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4585,6 +4893,9 @@
       <c r="I103">
         <v>142</v>
       </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4626,6 +4937,9 @@
       <c r="I104">
         <v>2</v>
       </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4667,6 +4981,9 @@
       <c r="I105">
         <v>61</v>
       </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4708,6 +5025,9 @@
       <c r="I106">
         <v>219</v>
       </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4749,6 +5069,9 @@
       <c r="I107">
         <v>4</v>
       </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4790,6 +5113,9 @@
       <c r="I108">
         <v>6</v>
       </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4831,6 +5157,9 @@
       <c r="I109">
         <v>2</v>
       </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4872,6 +5201,9 @@
       <c r="I110">
         <v>7</v>
       </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4913,6 +5245,9 @@
       <c r="I111">
         <v>27</v>
       </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4954,6 +5289,9 @@
       <c r="I112">
         <v>46</v>
       </c>
+      <c r="J112">
+        <v>37</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4995,6 +5333,9 @@
       <c r="I113">
         <v>8</v>
       </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5036,6 +5377,9 @@
       <c r="I114">
         <v>1</v>
       </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5077,6 +5421,9 @@
       <c r="I115">
         <v>3</v>
       </c>
+      <c r="J115">
+        <v>103</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5118,6 +5465,9 @@
       <c r="I116">
         <v>1</v>
       </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5159,6 +5509,9 @@
       <c r="I117">
         <v>0</v>
       </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5200,6 +5553,9 @@
       <c r="I118">
         <v>0</v>
       </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5241,6 +5597,9 @@
       <c r="I119">
         <v>6</v>
       </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5282,6 +5641,9 @@
       <c r="I120">
         <v>3</v>
       </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5323,6 +5685,9 @@
       <c r="I121">
         <v>1</v>
       </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5364,6 +5729,9 @@
       <c r="I122">
         <v>4</v>
       </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5405,6 +5773,9 @@
       <c r="I123">
         <v>1</v>
       </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5446,6 +5817,9 @@
       <c r="I124">
         <v>110</v>
       </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5487,6 +5861,9 @@
       <c r="I125">
         <v>20</v>
       </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5528,6 +5905,9 @@
       <c r="I126">
         <v>292</v>
       </c>
+      <c r="J126">
+        <v>321</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5569,6 +5949,9 @@
       <c r="I127">
         <v>500</v>
       </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5610,6 +5993,9 @@
       <c r="I128">
         <v>104</v>
       </c>
+      <c r="J128">
+        <v>89</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5651,6 +6037,9 @@
       <c r="I129">
         <v>15</v>
       </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5692,6 +6081,9 @@
       <c r="I130">
         <v>133</v>
       </c>
+      <c r="J130">
+        <v>103</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5733,6 +6125,9 @@
       <c r="I131">
         <v>21</v>
       </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5774,6 +6169,9 @@
       <c r="I132">
         <v>2</v>
       </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5815,6 +6213,9 @@
       <c r="I133">
         <v>61</v>
       </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5856,6 +6257,9 @@
       <c r="I134">
         <v>307</v>
       </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5897,6 +6301,9 @@
       <c r="I135">
         <v>111</v>
       </c>
+      <c r="J135">
+        <v>146</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5938,6 +6345,9 @@
       <c r="I136">
         <v>39</v>
       </c>
+      <c r="J136">
+        <v>70</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5979,6 +6389,9 @@
       <c r="I137">
         <v>142</v>
       </c>
+      <c r="J137">
+        <v>208</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6020,6 +6433,9 @@
       <c r="I138">
         <v>86</v>
       </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6061,6 +6477,9 @@
       <c r="I139">
         <v>53</v>
       </c>
+      <c r="J139">
+        <v>44</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6102,6 +6521,9 @@
       <c r="I140">
         <v>20</v>
       </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6143,6 +6565,9 @@
       <c r="I141">
         <v>10</v>
       </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6184,6 +6609,9 @@
       <c r="I142">
         <v>241</v>
       </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6225,6 +6653,9 @@
       <c r="I143">
         <v>222</v>
       </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6266,6 +6697,9 @@
       <c r="I144">
         <v>12</v>
       </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6307,6 +6741,9 @@
       <c r="I145">
         <v>19</v>
       </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6348,6 +6785,9 @@
       <c r="I146">
         <v>0</v>
       </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6389,6 +6829,9 @@
       <c r="I147">
         <v>43</v>
       </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6430,6 +6873,9 @@
       <c r="I148">
         <v>26</v>
       </c>
+      <c r="J148">
+        <v>36</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6471,6 +6917,9 @@
       <c r="I149">
         <v>0</v>
       </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6512,6 +6961,9 @@
       <c r="I150">
         <v>0</v>
       </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6553,6 +7005,9 @@
       <c r="I151">
         <v>28</v>
       </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6594,6 +7049,9 @@
       <c r="I152">
         <v>8</v>
       </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6635,6 +7093,9 @@
       <c r="I153">
         <v>0</v>
       </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6676,6 +7137,9 @@
       <c r="I154">
         <v>5</v>
       </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6717,6 +7181,9 @@
       <c r="I155">
         <v>1</v>
       </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6758,6 +7225,9 @@
       <c r="I156">
         <v>1</v>
       </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6799,6 +7269,9 @@
       <c r="I157">
         <v>0</v>
       </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6840,6 +7313,9 @@
       <c r="I158">
         <v>134</v>
       </c>
+      <c r="J158">
+        <v>42</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6881,6 +7357,9 @@
       <c r="I159">
         <v>14</v>
       </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6922,6 +7401,9 @@
       <c r="I160">
         <v>1</v>
       </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6963,6 +7445,9 @@
       <c r="I161">
         <v>89</v>
       </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7004,6 +7489,9 @@
       <c r="I162">
         <v>51</v>
       </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7045,6 +7533,9 @@
       <c r="I163">
         <v>85</v>
       </c>
+      <c r="J163">
+        <v>114</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7086,6 +7577,9 @@
       <c r="I164">
         <v>2</v>
       </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7127,6 +7621,9 @@
       <c r="I165">
         <v>63</v>
       </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7168,6 +7665,9 @@
       <c r="I166">
         <v>137</v>
       </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7209,6 +7709,9 @@
       <c r="I167">
         <v>30</v>
       </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7250,6 +7753,9 @@
       <c r="I168">
         <v>3</v>
       </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7291,6 +7797,9 @@
       <c r="I169">
         <v>0</v>
       </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7332,6 +7841,9 @@
       <c r="I170">
         <v>5</v>
       </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7373,6 +7885,9 @@
       <c r="I171">
         <v>11</v>
       </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7414,6 +7929,9 @@
       <c r="I172">
         <v>5</v>
       </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7455,6 +7973,9 @@
       <c r="I173">
         <v>0</v>
       </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7496,6 +8017,9 @@
       <c r="I174">
         <v>24</v>
       </c>
+      <c r="J174">
+        <v>26</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7537,6 +8061,9 @@
       <c r="I175">
         <v>45</v>
       </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7578,6 +8105,9 @@
       <c r="I176">
         <v>15</v>
       </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7619,6 +8149,9 @@
       <c r="I177">
         <v>5</v>
       </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7660,6 +8193,9 @@
       <c r="I178">
         <v>31</v>
       </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7701,6 +8237,9 @@
       <c r="I179">
         <v>12</v>
       </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7742,6 +8281,9 @@
       <c r="I180">
         <v>2</v>
       </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7783,6 +8325,9 @@
       <c r="I181">
         <v>1</v>
       </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7824,6 +8369,9 @@
       <c r="I182">
         <v>5</v>
       </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7865,6 +8413,9 @@
       <c r="I183">
         <v>44</v>
       </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7906,6 +8457,9 @@
       <c r="I184">
         <v>41</v>
       </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7947,6 +8501,9 @@
       <c r="I185">
         <v>0</v>
       </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7988,6 +8545,9 @@
       <c r="I186">
         <v>9</v>
       </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8029,6 +8589,9 @@
       <c r="I187">
         <v>57</v>
       </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8070,6 +8633,9 @@
       <c r="I188">
         <v>221</v>
       </c>
+      <c r="J188">
+        <v>7</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8111,6 +8677,9 @@
       <c r="I189">
         <v>68</v>
       </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8152,6 +8721,9 @@
       <c r="I190">
         <v>19</v>
       </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8193,6 +8765,9 @@
       <c r="I191">
         <v>17</v>
       </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8234,6 +8809,9 @@
       <c r="I192">
         <v>131</v>
       </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8275,6 +8853,9 @@
       <c r="I193">
         <v>3</v>
       </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8316,6 +8897,9 @@
       <c r="I194">
         <v>55</v>
       </c>
+      <c r="J194">
+        <v>4</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8357,6 +8941,9 @@
       <c r="I195">
         <v>3</v>
       </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8398,6 +8985,9 @@
       <c r="I196">
         <v>155</v>
       </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8439,6 +9029,9 @@
       <c r="I197">
         <v>0</v>
       </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8480,6 +9073,9 @@
       <c r="I198">
         <v>14</v>
       </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8521,6 +9117,9 @@
       <c r="I199">
         <v>41</v>
       </c>
+      <c r="J199">
+        <v>25</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8562,6 +9161,9 @@
       <c r="I200">
         <v>62</v>
       </c>
+      <c r="J200">
+        <v>104</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8603,6 +9205,9 @@
       <c r="I201">
         <v>12</v>
       </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8644,6 +9249,9 @@
       <c r="I202">
         <v>79</v>
       </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8685,6 +9293,9 @@
       <c r="I203">
         <v>1</v>
       </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8726,6 +9337,9 @@
       <c r="I204">
         <v>34</v>
       </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8767,6 +9381,9 @@
       <c r="I205">
         <v>141</v>
       </c>
+      <c r="J205">
+        <v>364</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8808,6 +9425,9 @@
       <c r="I206">
         <v>59</v>
       </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8849,6 +9469,9 @@
       <c r="I207">
         <v>22</v>
       </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8890,6 +9513,9 @@
       <c r="I208">
         <v>84</v>
       </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8931,6 +9557,9 @@
       <c r="I209">
         <v>1</v>
       </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8972,6 +9601,9 @@
       <c r="I210">
         <v>0</v>
       </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9013,6 +9645,9 @@
       <c r="I211">
         <v>38</v>
       </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9054,6 +9689,9 @@
       <c r="I212">
         <v>5</v>
       </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9095,6 +9733,9 @@
       <c r="I213">
         <v>1</v>
       </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9136,6 +9777,9 @@
       <c r="I214">
         <v>0</v>
       </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9177,6 +9821,9 @@
       <c r="I215">
         <v>78</v>
       </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9218,6 +9865,9 @@
       <c r="I216">
         <v>92</v>
       </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9259,6 +9909,9 @@
       <c r="I217">
         <v>158</v>
       </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9300,6 +9953,9 @@
       <c r="I218">
         <v>0</v>
       </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9341,6 +9997,9 @@
       <c r="I219">
         <v>2</v>
       </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9382,6 +10041,9 @@
       <c r="I220">
         <v>0</v>
       </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9423,6 +10085,9 @@
       <c r="I221">
         <v>26</v>
       </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9464,6 +10129,9 @@
       <c r="I222">
         <v>4</v>
       </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9505,6 +10173,9 @@
       <c r="I223">
         <v>44</v>
       </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9546,6 +10217,9 @@
       <c r="I224">
         <v>4</v>
       </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9587,6 +10261,9 @@
       <c r="I225">
         <v>21</v>
       </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9628,6 +10305,9 @@
       <c r="I226">
         <v>3</v>
       </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9669,6 +10349,9 @@
       <c r="I227">
         <v>43</v>
       </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9710,6 +10393,9 @@
       <c r="I228">
         <v>97</v>
       </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9751,6 +10437,9 @@
       <c r="I229">
         <v>9</v>
       </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9792,6 +10481,9 @@
       <c r="I230">
         <v>137</v>
       </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9833,6 +10525,9 @@
       <c r="I231">
         <v>0</v>
       </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9874,6 +10569,9 @@
       <c r="I232">
         <v>3</v>
       </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9915,6 +10613,9 @@
       <c r="I233">
         <v>56</v>
       </c>
+      <c r="J233">
+        <v>47</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9956,6 +10657,9 @@
       <c r="I234">
         <v>168</v>
       </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9997,6 +10701,9 @@
       <c r="I235">
         <v>16</v>
       </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10038,6 +10745,9 @@
       <c r="I236">
         <v>1</v>
       </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10079,6 +10789,9 @@
       <c r="I237">
         <v>0</v>
       </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10120,6 +10833,9 @@
       <c r="I238">
         <v>3</v>
       </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10161,6 +10877,9 @@
       <c r="I239">
         <v>53</v>
       </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10202,6 +10921,9 @@
       <c r="I240">
         <v>86</v>
       </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10243,6 +10965,9 @@
       <c r="I241">
         <v>1</v>
       </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10284,6 +11009,9 @@
       <c r="I242">
         <v>41</v>
       </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10325,6 +11053,9 @@
       <c r="I243">
         <v>189</v>
       </c>
+      <c r="J243">
+        <v>142</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10366,6 +11097,9 @@
       <c r="I244">
         <v>559</v>
       </c>
+      <c r="J244">
+        <v>116</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10407,6 +11141,9 @@
       <c r="I245">
         <v>343</v>
       </c>
+      <c r="J245">
+        <v>30</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10448,6 +11185,9 @@
       <c r="I246">
         <v>472</v>
       </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10489,6 +11229,9 @@
       <c r="I247">
         <v>1164</v>
       </c>
+      <c r="J247">
+        <v>169</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10530,6 +11273,9 @@
       <c r="I248">
         <v>3006</v>
       </c>
+      <c r="J248">
+        <v>1583</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10571,6 +11317,9 @@
       <c r="I249">
         <v>14</v>
       </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10612,6 +11361,9 @@
       <c r="I250">
         <v>87</v>
       </c>
+      <c r="J250">
+        <v>90</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10653,6 +11405,9 @@
       <c r="I251">
         <v>33</v>
       </c>
+      <c r="J251">
+        <v>70</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10694,6 +11449,9 @@
       <c r="I252">
         <v>39</v>
       </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10735,6 +11493,9 @@
       <c r="I253">
         <v>207</v>
       </c>
+      <c r="J253">
+        <v>196</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10776,6 +11537,9 @@
       <c r="I254">
         <v>141</v>
       </c>
+      <c r="J254">
+        <v>141</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10817,6 +11581,9 @@
       <c r="I255">
         <v>217</v>
       </c>
+      <c r="J255">
+        <v>94</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10858,6 +11625,9 @@
       <c r="I256">
         <v>165</v>
       </c>
+      <c r="J256">
+        <v>120</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10899,6 +11669,9 @@
       <c r="I257">
         <v>292</v>
       </c>
+      <c r="J257">
+        <v>109</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -10940,6 +11713,9 @@
       <c r="I258">
         <v>10</v>
       </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10981,6 +11757,9 @@
       <c r="I259">
         <v>48</v>
       </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11022,6 +11801,9 @@
       <c r="I260">
         <v>120</v>
       </c>
+      <c r="J260">
+        <v>48</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11063,6 +11845,9 @@
       <c r="I261">
         <v>260</v>
       </c>
+      <c r="J261">
+        <v>88</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11104,6 +11889,9 @@
       <c r="I262">
         <v>276</v>
       </c>
+      <c r="J262">
+        <v>340</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11145,6 +11933,9 @@
       <c r="I263">
         <v>166</v>
       </c>
+      <c r="J263">
+        <v>346</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11186,6 +11977,9 @@
       <c r="I264">
         <v>164</v>
       </c>
+      <c r="J264">
+        <v>35</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11227,6 +12021,9 @@
       <c r="I265">
         <v>0</v>
       </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11268,6 +12065,9 @@
       <c r="I266">
         <v>114</v>
       </c>
+      <c r="J266">
+        <v>29</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11309,6 +12109,9 @@
       <c r="I267">
         <v>5</v>
       </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11350,6 +12153,9 @@
       <c r="I268">
         <v>0</v>
       </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11391,6 +12197,9 @@
       <c r="I269">
         <v>0</v>
       </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11432,6 +12241,9 @@
       <c r="I270">
         <v>0</v>
       </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11473,6 +12285,9 @@
       <c r="I271">
         <v>0</v>
       </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11514,6 +12329,9 @@
       <c r="I272">
         <v>68</v>
       </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11555,6 +12373,9 @@
       <c r="I273">
         <v>36</v>
       </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11596,6 +12417,9 @@
       <c r="I274">
         <v>0</v>
       </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11637,6 +12461,9 @@
       <c r="I275">
         <v>1</v>
       </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11678,6 +12505,9 @@
       <c r="I276">
         <v>10</v>
       </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11719,6 +12549,9 @@
       <c r="I277">
         <v>96</v>
       </c>
+      <c r="J277">
+        <v>20</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11760,6 +12593,9 @@
       <c r="I278">
         <v>21</v>
       </c>
+      <c r="J278">
+        <v>8</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11801,6 +12637,9 @@
       <c r="I279">
         <v>0</v>
       </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11842,6 +12681,9 @@
       <c r="I280">
         <v>27</v>
       </c>
+      <c r="J280">
+        <v>22</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11883,6 +12725,9 @@
       <c r="I281">
         <v>7</v>
       </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -11924,6 +12769,9 @@
       <c r="I282">
         <v>21</v>
       </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -11965,6 +12813,9 @@
       <c r="I283">
         <v>14</v>
       </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12006,6 +12857,9 @@
       <c r="I284">
         <v>0</v>
       </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12047,6 +12901,9 @@
       <c r="I285">
         <v>19</v>
       </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12088,6 +12945,9 @@
       <c r="I286">
         <v>33</v>
       </c>
+      <c r="J286">
+        <v>62</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12129,6 +12989,9 @@
       <c r="I287">
         <v>12</v>
       </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12170,6 +13033,9 @@
       <c r="I288">
         <v>1</v>
       </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12211,6 +13077,9 @@
       <c r="I289">
         <v>0</v>
       </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12252,6 +13121,9 @@
       <c r="I290">
         <v>0</v>
       </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12293,6 +13165,9 @@
       <c r="I291">
         <v>0</v>
       </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12334,6 +13209,9 @@
       <c r="I292">
         <v>41</v>
       </c>
+      <c r="J292">
+        <v>44</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12375,6 +13253,9 @@
       <c r="I293">
         <v>272</v>
       </c>
+      <c r="J293">
+        <v>51</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12416,6 +13297,9 @@
       <c r="I294">
         <v>4</v>
       </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12457,6 +13341,9 @@
       <c r="I295">
         <v>24</v>
       </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12498,6 +13385,9 @@
       <c r="I296">
         <v>97</v>
       </c>
+      <c r="J296">
+        <v>20</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12539,6 +13429,9 @@
       <c r="I297">
         <v>2</v>
       </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12580,6 +13473,9 @@
       <c r="I298">
         <v>0</v>
       </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12621,6 +13517,9 @@
       <c r="I299">
         <v>34</v>
       </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12662,6 +13561,9 @@
       <c r="I300">
         <v>19</v>
       </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12703,6 +13605,9 @@
       <c r="I301">
         <v>31</v>
       </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12744,6 +13649,9 @@
       <c r="I302">
         <v>0</v>
       </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12785,6 +13693,9 @@
       <c r="I303">
         <v>136</v>
       </c>
+      <c r="J303">
+        <v>134</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12826,6 +13737,9 @@
       <c r="I304">
         <v>1</v>
       </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12867,6 +13781,9 @@
       <c r="I305">
         <v>8</v>
       </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12908,6 +13825,9 @@
       <c r="I306">
         <v>121</v>
       </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -12948,6 +13868,9 @@
       </c>
       <c r="I307">
         <v>53</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dfsinservicioSMA.xlsx
+++ b/dfsinservicioSMA.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J307"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PROVINCIA</t>
+          <t>PROVINCIA.x</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PARROQUIA</t>
+          <t>PARROQUIA.x</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>poblacion</t>
+          <t>pob2020</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -406,6 +406,11 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>lineStf</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pob2022</t>
         </is>
       </c>
     </row>
@@ -452,6 +457,9 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>1721</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +504,9 @@
       <c r="J3">
         <v>219</v>
       </c>
+      <c r="K3">
+        <v>5738</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +551,9 @@
       <c r="J4">
         <v>2339</v>
       </c>
+      <c r="K4">
+        <v>6707</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -584,6 +598,9 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>2516</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -628,6 +645,9 @@
       <c r="J6">
         <v>1668</v>
       </c>
+      <c r="K6">
+        <v>8497</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -672,6 +692,9 @@
       <c r="J7">
         <v>21</v>
       </c>
+      <c r="K7">
+        <v>1058</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -716,6 +739,9 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>1552</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -760,6 +786,9 @@
       <c r="J9">
         <v>37</v>
       </c>
+      <c r="K9">
+        <v>1380</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -804,6 +833,9 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>732</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -848,6 +880,9 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>2981</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -892,6 +927,9 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>1388</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -936,6 +974,9 @@
       <c r="J13">
         <v>54</v>
       </c>
+      <c r="K13">
+        <v>701</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -980,6 +1021,9 @@
       <c r="J14">
         <v>13</v>
       </c>
+      <c r="K14">
+        <v>1315</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,6 +1068,9 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>1779</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1068,6 +1115,9 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>1692</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1112,6 +1162,9 @@
       <c r="J17">
         <v>145</v>
       </c>
+      <c r="K17">
+        <v>753</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1156,6 +1209,9 @@
       <c r="J18">
         <v>153</v>
       </c>
+      <c r="K18">
+        <v>2648</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1200,6 +1256,9 @@
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>1849</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1244,6 +1303,9 @@
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>1618</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1288,6 +1350,9 @@
       <c r="J21">
         <v>30</v>
       </c>
+      <c r="K21">
+        <v>1058</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1332,6 +1397,9 @@
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>1158</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1376,6 +1444,9 @@
       <c r="J23">
         <v>0</v>
       </c>
+      <c r="K23">
+        <v>1875</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1420,6 +1491,9 @@
       <c r="J24">
         <v>0</v>
       </c>
+      <c r="K24">
+        <v>1237</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1464,6 +1538,9 @@
       <c r="J25">
         <v>148</v>
       </c>
+      <c r="K25">
+        <v>1691</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1508,6 +1585,9 @@
       <c r="J26">
         <v>36</v>
       </c>
+      <c r="K26">
+        <v>1770</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1552,6 +1632,9 @@
       <c r="J27">
         <v>56</v>
       </c>
+      <c r="K27">
+        <v>1896</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1596,6 +1679,9 @@
       <c r="J28">
         <v>22</v>
       </c>
+      <c r="K28">
+        <v>2745</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1640,6 +1726,9 @@
       <c r="J29">
         <v>0</v>
       </c>
+      <c r="K29">
+        <v>1005</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1684,6 +1773,9 @@
       <c r="J30">
         <v>38</v>
       </c>
+      <c r="K30">
+        <v>1837</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1728,6 +1820,9 @@
       <c r="J31">
         <v>63</v>
       </c>
+      <c r="K31">
+        <v>1191</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1772,6 +1867,9 @@
       <c r="J32">
         <v>39</v>
       </c>
+      <c r="K32">
+        <v>1078</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1816,6 +1914,9 @@
       <c r="J33">
         <v>0</v>
       </c>
+      <c r="K33">
+        <v>1692</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1860,6 +1961,9 @@
       <c r="J34">
         <v>0</v>
       </c>
+      <c r="K34">
+        <v>3223</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1904,6 +2008,9 @@
       <c r="J35">
         <v>0</v>
       </c>
+      <c r="K35">
+        <v>1680</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1948,6 +2055,9 @@
       <c r="J36">
         <v>0</v>
       </c>
+      <c r="K36">
+        <v>2127</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1992,6 +2102,9 @@
       <c r="J37">
         <v>40</v>
       </c>
+      <c r="K37">
+        <v>1357</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2036,6 +2149,9 @@
       <c r="J38">
         <v>124</v>
       </c>
+      <c r="K38">
+        <v>4732</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2080,6 +2196,9 @@
       <c r="J39">
         <v>0</v>
       </c>
+      <c r="K39">
+        <v>670</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2124,6 +2243,9 @@
       <c r="J40">
         <v>0</v>
       </c>
+      <c r="K40">
+        <v>1393</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2168,6 +2290,9 @@
       <c r="J41">
         <v>88</v>
       </c>
+      <c r="K41">
+        <v>1364</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2212,6 +2337,9 @@
       <c r="J42">
         <v>121</v>
       </c>
+      <c r="K42">
+        <v>1699</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2256,6 +2384,9 @@
       <c r="J43">
         <v>68</v>
       </c>
+      <c r="K43">
+        <v>2254</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2300,6 +2431,9 @@
       <c r="J44">
         <v>0</v>
       </c>
+      <c r="K44">
+        <v>1951</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2344,6 +2478,9 @@
       <c r="J45">
         <v>0</v>
       </c>
+      <c r="K45">
+        <v>746</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2388,6 +2525,9 @@
       <c r="J46">
         <v>0</v>
       </c>
+      <c r="K46">
+        <v>641</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2432,6 +2572,9 @@
       <c r="J47">
         <v>0</v>
       </c>
+      <c r="K47">
+        <v>1144</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2476,6 +2619,9 @@
       <c r="J48">
         <v>0</v>
       </c>
+      <c r="K48">
+        <v>929</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2520,6 +2666,9 @@
       <c r="J49">
         <v>47</v>
       </c>
+      <c r="K49">
+        <v>1482</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2564,6 +2713,9 @@
       <c r="J50">
         <v>95</v>
       </c>
+      <c r="K50">
+        <v>3866</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2608,6 +2760,9 @@
       <c r="J51">
         <v>15</v>
       </c>
+      <c r="K51">
+        <v>1762</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2652,6 +2807,9 @@
       <c r="J52">
         <v>307</v>
       </c>
+      <c r="K52">
+        <v>3561</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2696,6 +2854,9 @@
       <c r="J53">
         <v>313</v>
       </c>
+      <c r="K53">
+        <v>3431</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2740,6 +2901,9 @@
       <c r="J54">
         <v>0</v>
       </c>
+      <c r="K54">
+        <v>2554</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2784,6 +2948,9 @@
       <c r="J55">
         <v>0</v>
       </c>
+      <c r="K55">
+        <v>1945</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2828,6 +2995,9 @@
       <c r="J56">
         <v>6</v>
       </c>
+      <c r="K56">
+        <v>1030</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2872,6 +3042,9 @@
       <c r="J57">
         <v>158</v>
       </c>
+      <c r="K57">
+        <v>3264</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2916,6 +3089,9 @@
       <c r="J58">
         <v>0</v>
       </c>
+      <c r="K58">
+        <v>2733</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2960,6 +3136,9 @@
       <c r="J59">
         <v>167</v>
       </c>
+      <c r="K59">
+        <v>4682</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3004,6 +3183,9 @@
       <c r="J60">
         <v>0</v>
       </c>
+      <c r="K60">
+        <v>257</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3048,6 +3230,9 @@
       <c r="J61">
         <v>0</v>
       </c>
+      <c r="K61">
+        <v>588</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3092,6 +3277,9 @@
       <c r="J62">
         <v>0</v>
       </c>
+      <c r="K62">
+        <v>630</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3136,6 +3324,9 @@
       <c r="J63">
         <v>0</v>
       </c>
+      <c r="K63">
+        <v>711</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3180,6 +3371,9 @@
       <c r="J64">
         <v>0</v>
       </c>
+      <c r="K64">
+        <v>3045</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3224,6 +3418,9 @@
       <c r="J65">
         <v>0</v>
       </c>
+      <c r="K65">
+        <v>684</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3268,6 +3465,9 @@
       <c r="J66">
         <v>0</v>
       </c>
+      <c r="K66">
+        <v>724</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3312,6 +3512,9 @@
       <c r="J67">
         <v>0</v>
       </c>
+      <c r="K67">
+        <v>1083</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3356,6 +3559,9 @@
       <c r="J68">
         <v>0</v>
       </c>
+      <c r="K68">
+        <v>224</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3400,6 +3606,9 @@
       <c r="J69">
         <v>0</v>
       </c>
+      <c r="K69">
+        <v>1156</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3444,6 +3653,9 @@
       <c r="J70">
         <v>0</v>
       </c>
+      <c r="K70">
+        <v>659</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3488,6 +3700,9 @@
       <c r="J71">
         <v>128</v>
       </c>
+      <c r="K71">
+        <v>3281</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3532,6 +3747,9 @@
       <c r="J72">
         <v>0</v>
       </c>
+      <c r="K72">
+        <v>872</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3576,6 +3794,9 @@
       <c r="J73">
         <v>0</v>
       </c>
+      <c r="K73">
+        <v>274</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3620,6 +3841,9 @@
       <c r="J74">
         <v>0</v>
       </c>
+      <c r="K74">
+        <v>1294</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3664,6 +3888,9 @@
       <c r="J75">
         <v>0</v>
       </c>
+      <c r="K75">
+        <v>786</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3708,6 +3935,9 @@
       <c r="J76">
         <v>0</v>
       </c>
+      <c r="K76">
+        <v>533</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3752,6 +3982,9 @@
       <c r="J77">
         <v>0</v>
       </c>
+      <c r="K77">
+        <v>389</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3796,6 +4029,9 @@
       <c r="J78">
         <v>0</v>
       </c>
+      <c r="K78">
+        <v>249</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3840,6 +4076,9 @@
       <c r="J79">
         <v>0</v>
       </c>
+      <c r="K79">
+        <v>883</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3884,6 +4123,9 @@
       <c r="J80">
         <v>0</v>
       </c>
+      <c r="K80">
+        <v>2253</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3928,6 +4170,9 @@
       <c r="J81">
         <v>78</v>
       </c>
+      <c r="K81">
+        <v>1413</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3972,6 +4217,9 @@
       <c r="J82">
         <v>0</v>
       </c>
+      <c r="K82">
+        <v>985</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4016,6 +4264,9 @@
       <c r="J83">
         <v>0</v>
       </c>
+      <c r="K83">
+        <v>435</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4060,6 +4311,9 @@
       <c r="J84">
         <v>0</v>
       </c>
+      <c r="K84">
+        <v>468</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4104,6 +4358,9 @@
       <c r="J85">
         <v>0</v>
       </c>
+      <c r="K85">
+        <v>302</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4148,6 +4405,9 @@
       <c r="J86">
         <v>0</v>
       </c>
+      <c r="K86">
+        <v>1586</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4192,6 +4452,9 @@
       <c r="J87">
         <v>0</v>
       </c>
+      <c r="K87">
+        <v>4433</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4236,6 +4499,9 @@
       <c r="J88">
         <v>0</v>
       </c>
+      <c r="K88">
+        <v>2165</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4280,6 +4546,9 @@
       <c r="J89">
         <v>0</v>
       </c>
+      <c r="K89">
+        <v>1357</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4324,6 +4593,9 @@
       <c r="J90">
         <v>71</v>
       </c>
+      <c r="K90">
+        <v>1264</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4368,6 +4640,9 @@
       <c r="J91">
         <v>0</v>
       </c>
+      <c r="K91">
+        <v>517</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4412,6 +4687,9 @@
       <c r="J92">
         <v>175</v>
       </c>
+      <c r="K92">
+        <v>1194</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4456,6 +4734,9 @@
       <c r="J93">
         <v>0</v>
       </c>
+      <c r="K93">
+        <v>538</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4500,6 +4781,9 @@
       <c r="J94">
         <v>0</v>
       </c>
+      <c r="K94">
+        <v>692</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4544,6 +4828,9 @@
       <c r="J95">
         <v>0</v>
       </c>
+      <c r="K95">
+        <v>937</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4588,6 +4875,9 @@
       <c r="J96">
         <v>0</v>
       </c>
+      <c r="K96">
+        <v>1446</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4632,6 +4922,9 @@
       <c r="J97">
         <v>0</v>
       </c>
+      <c r="K97">
+        <v>3726</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4676,6 +4969,9 @@
       <c r="J98">
         <v>0</v>
       </c>
+      <c r="K98">
+        <v>970</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4720,6 +5016,9 @@
       <c r="J99">
         <v>107</v>
       </c>
+      <c r="K99">
+        <v>2310</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4764,6 +5063,9 @@
       <c r="J100">
         <v>200</v>
       </c>
+      <c r="K100">
+        <v>963</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4808,6 +5110,9 @@
       <c r="J101">
         <v>65</v>
       </c>
+      <c r="K101">
+        <v>817</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4852,6 +5157,9 @@
       <c r="J102">
         <v>0</v>
       </c>
+      <c r="K102">
+        <v>1594</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4896,6 +5204,9 @@
       <c r="J103">
         <v>0</v>
       </c>
+      <c r="K103">
+        <v>768</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4940,6 +5251,9 @@
       <c r="J104">
         <v>0</v>
       </c>
+      <c r="K104">
+        <v>880</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4984,6 +5298,9 @@
       <c r="J105">
         <v>0</v>
       </c>
+      <c r="K105">
+        <v>700</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5028,6 +5345,9 @@
       <c r="J106">
         <v>0</v>
       </c>
+      <c r="K106">
+        <v>2760</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5072,6 +5392,9 @@
       <c r="J107">
         <v>0</v>
       </c>
+      <c r="K107">
+        <v>1388</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5116,6 +5439,9 @@
       <c r="J108">
         <v>0</v>
       </c>
+      <c r="K108">
+        <v>535</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5160,6 +5486,9 @@
       <c r="J109">
         <v>0</v>
       </c>
+      <c r="K109">
+        <v>1363</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5204,6 +5533,9 @@
       <c r="J110">
         <v>0</v>
       </c>
+      <c r="K110">
+        <v>1838</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5248,6 +5580,9 @@
       <c r="J111">
         <v>0</v>
       </c>
+      <c r="K111">
+        <v>3577</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5292,6 +5627,9 @@
       <c r="J112">
         <v>37</v>
       </c>
+      <c r="K112">
+        <v>6316</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5336,6 +5674,9 @@
       <c r="J113">
         <v>0</v>
       </c>
+      <c r="K113">
+        <v>1433</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5380,6 +5721,9 @@
       <c r="J114">
         <v>0</v>
       </c>
+      <c r="K114">
+        <v>2842</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5424,6 +5768,9 @@
       <c r="J115">
         <v>103</v>
       </c>
+      <c r="K115">
+        <v>1659</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5468,6 +5815,9 @@
       <c r="J116">
         <v>0</v>
       </c>
+      <c r="K116">
+        <v>533</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5512,6 +5862,9 @@
       <c r="J117">
         <v>0</v>
       </c>
+      <c r="K117">
+        <v>1439</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5556,6 +5909,9 @@
       <c r="J118">
         <v>0</v>
       </c>
+      <c r="K118">
+        <v>1415</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5600,6 +5956,9 @@
       <c r="J119">
         <v>0</v>
       </c>
+      <c r="K119">
+        <v>247</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5644,6 +6003,9 @@
       <c r="J120">
         <v>0</v>
       </c>
+      <c r="K120">
+        <v>1053</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5688,6 +6050,9 @@
       <c r="J121">
         <v>0</v>
       </c>
+      <c r="K121">
+        <v>786</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5732,6 +6097,9 @@
       <c r="J122">
         <v>0</v>
       </c>
+      <c r="K122">
+        <v>1369</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5776,6 +6144,9 @@
       <c r="J123">
         <v>0</v>
       </c>
+      <c r="K123">
+        <v>511</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5820,6 +6191,9 @@
       <c r="J124">
         <v>0</v>
       </c>
+      <c r="K124">
+        <v>3358</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5864,6 +6238,9 @@
       <c r="J125">
         <v>0</v>
       </c>
+      <c r="K125">
+        <v>4508</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5908,6 +6285,9 @@
       <c r="J126">
         <v>321</v>
       </c>
+      <c r="K126">
+        <v>3561</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5952,6 +6332,9 @@
       <c r="J127">
         <v>0</v>
       </c>
+      <c r="K127">
+        <v>3258</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5996,6 +6379,9 @@
       <c r="J128">
         <v>89</v>
       </c>
+      <c r="K128">
+        <v>1780</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6040,6 +6426,9 @@
       <c r="J129">
         <v>0</v>
       </c>
+      <c r="K129">
+        <v>328</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6084,6 +6473,9 @@
       <c r="J130">
         <v>103</v>
       </c>
+      <c r="K130">
+        <v>1664</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6128,6 +6520,9 @@
       <c r="J131">
         <v>0</v>
       </c>
+      <c r="K131">
+        <v>592</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6172,6 +6567,9 @@
       <c r="J132">
         <v>0</v>
       </c>
+      <c r="K132">
+        <v>221</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6216,6 +6614,9 @@
       <c r="J133">
         <v>0</v>
       </c>
+      <c r="K133">
+        <v>1020</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6260,6 +6661,9 @@
       <c r="J134">
         <v>0</v>
       </c>
+      <c r="K134">
+        <v>976</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6304,6 +6708,9 @@
       <c r="J135">
         <v>146</v>
       </c>
+      <c r="K135">
+        <v>1871</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6348,6 +6755,9 @@
       <c r="J136">
         <v>70</v>
       </c>
+      <c r="K136">
+        <v>2004</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6392,6 +6802,9 @@
       <c r="J137">
         <v>208</v>
       </c>
+      <c r="K137">
+        <v>1680</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6436,6 +6849,9 @@
       <c r="J138">
         <v>0</v>
       </c>
+      <c r="K138">
+        <v>1025</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6480,6 +6896,9 @@
       <c r="J139">
         <v>44</v>
       </c>
+      <c r="K139">
+        <v>2082</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6524,6 +6943,9 @@
       <c r="J140">
         <v>0</v>
       </c>
+      <c r="K140">
+        <v>1010</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6568,6 +6990,9 @@
       <c r="J141">
         <v>0</v>
       </c>
+      <c r="K141">
+        <v>1305</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6612,6 +7037,9 @@
       <c r="J142">
         <v>0</v>
       </c>
+      <c r="K142">
+        <v>1413</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6656,6 +7084,9 @@
       <c r="J143">
         <v>0</v>
       </c>
+      <c r="K143">
+        <v>1502</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6700,6 +7131,9 @@
       <c r="J144">
         <v>0</v>
       </c>
+      <c r="K144">
+        <v>2658</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6744,6 +7178,9 @@
       <c r="J145">
         <v>0</v>
       </c>
+      <c r="K145">
+        <v>1016</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6788,6 +7225,9 @@
       <c r="J146">
         <v>0</v>
       </c>
+      <c r="K146">
+        <v>1387</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6832,6 +7272,9 @@
       <c r="J147">
         <v>0</v>
       </c>
+      <c r="K147">
+        <v>293</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6876,6 +7319,9 @@
       <c r="J148">
         <v>36</v>
       </c>
+      <c r="K148">
+        <v>457</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6920,6 +7366,9 @@
       <c r="J149">
         <v>0</v>
       </c>
+      <c r="K149">
+        <v>1165</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6964,6 +7413,9 @@
       <c r="J150">
         <v>0</v>
       </c>
+      <c r="K150">
+        <v>704</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7008,6 +7460,9 @@
       <c r="J151">
         <v>0</v>
       </c>
+      <c r="K151">
+        <v>382</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7052,6 +7507,9 @@
       <c r="J152">
         <v>0</v>
       </c>
+      <c r="K152">
+        <v>605</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7096,6 +7554,9 @@
       <c r="J153">
         <v>0</v>
       </c>
+      <c r="K153">
+        <v>2163</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7140,6 +7601,9 @@
       <c r="J154">
         <v>0</v>
       </c>
+      <c r="K154">
+        <v>2050</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7184,6 +7648,9 @@
       <c r="J155">
         <v>0</v>
       </c>
+      <c r="K155">
+        <v>1450</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7228,6 +7695,9 @@
       <c r="J156">
         <v>0</v>
       </c>
+      <c r="K156">
+        <v>1647</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7272,6 +7742,9 @@
       <c r="J157">
         <v>0</v>
       </c>
+      <c r="K157">
+        <v>802</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7316,6 +7789,9 @@
       <c r="J158">
         <v>42</v>
       </c>
+      <c r="K158">
+        <v>1719</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7360,6 +7836,9 @@
       <c r="J159">
         <v>0</v>
       </c>
+      <c r="K159">
+        <v>985</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7404,6 +7883,9 @@
       <c r="J160">
         <v>0</v>
       </c>
+      <c r="K160">
+        <v>1361</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7448,6 +7930,9 @@
       <c r="J161">
         <v>0</v>
       </c>
+      <c r="K161">
+        <v>634</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7492,6 +7977,9 @@
       <c r="J162">
         <v>0</v>
       </c>
+      <c r="K162">
+        <v>991</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7536,6 +8024,9 @@
       <c r="J163">
         <v>114</v>
       </c>
+      <c r="K163">
+        <v>2406</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7580,6 +8071,9 @@
       <c r="J164">
         <v>0</v>
       </c>
+      <c r="K164">
+        <v>1586</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7624,6 +8118,9 @@
       <c r="J165">
         <v>0</v>
       </c>
+      <c r="K165">
+        <v>1077</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7668,6 +8165,9 @@
       <c r="J166">
         <v>0</v>
       </c>
+      <c r="K166">
+        <v>1735</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7712,6 +8212,9 @@
       <c r="J167">
         <v>0</v>
       </c>
+      <c r="K167">
+        <v>1237</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7756,6 +8259,9 @@
       <c r="J168">
         <v>0</v>
       </c>
+      <c r="K168">
+        <v>1335</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7800,6 +8306,9 @@
       <c r="J169">
         <v>0</v>
       </c>
+      <c r="K169">
+        <v>1157</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7844,6 +8353,9 @@
       <c r="J170">
         <v>0</v>
       </c>
+      <c r="K170">
+        <v>2423</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7888,6 +8400,9 @@
       <c r="J171">
         <v>0</v>
       </c>
+      <c r="K171">
+        <v>1308</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7932,6 +8447,9 @@
       <c r="J172">
         <v>0</v>
       </c>
+      <c r="K172">
+        <v>1047</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7976,6 +8494,9 @@
       <c r="J173">
         <v>0</v>
       </c>
+      <c r="K173">
+        <v>972</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8020,6 +8541,9 @@
       <c r="J174">
         <v>26</v>
       </c>
+      <c r="K174">
+        <v>1558</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8064,6 +8588,9 @@
       <c r="J175">
         <v>0</v>
       </c>
+      <c r="K175">
+        <v>1514</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8108,6 +8635,9 @@
       <c r="J176">
         <v>0</v>
       </c>
+      <c r="K176">
+        <v>816</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8152,6 +8682,9 @@
       <c r="J177">
         <v>0</v>
       </c>
+      <c r="K177">
+        <v>868</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8196,6 +8729,9 @@
       <c r="J178">
         <v>0</v>
       </c>
+      <c r="K178">
+        <v>1913</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8240,6 +8776,9 @@
       <c r="J179">
         <v>0</v>
       </c>
+      <c r="K179">
+        <v>1685</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8284,6 +8823,9 @@
       <c r="J180">
         <v>0</v>
       </c>
+      <c r="K180">
+        <v>1207</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8328,6 +8870,9 @@
       <c r="J181">
         <v>0</v>
       </c>
+      <c r="K181">
+        <v>473</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8372,6 +8917,9 @@
       <c r="J182">
         <v>0</v>
       </c>
+      <c r="K182">
+        <v>995</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8416,6 +8964,9 @@
       <c r="J183">
         <v>0</v>
       </c>
+      <c r="K183">
+        <v>2060</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8460,6 +9011,9 @@
       <c r="J184">
         <v>0</v>
       </c>
+      <c r="K184">
+        <v>2961</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8504,6 +9058,9 @@
       <c r="J185">
         <v>0</v>
       </c>
+      <c r="K185">
+        <v>293</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8548,6 +9105,9 @@
       <c r="J186">
         <v>0</v>
       </c>
+      <c r="K186">
+        <v>462</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8592,6 +9152,9 @@
       <c r="J187">
         <v>0</v>
       </c>
+      <c r="K187">
+        <v>2733</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8636,6 +9199,9 @@
       <c r="J188">
         <v>7</v>
       </c>
+      <c r="K188">
+        <v>2717</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8680,6 +9246,9 @@
       <c r="J189">
         <v>0</v>
       </c>
+      <c r="K189">
+        <v>3418</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8724,6 +9293,9 @@
       <c r="J190">
         <v>0</v>
       </c>
+      <c r="K190">
+        <v>1816</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8768,6 +9340,9 @@
       <c r="J191">
         <v>0</v>
       </c>
+      <c r="K191">
+        <v>1747</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8812,6 +9387,9 @@
       <c r="J192">
         <v>0</v>
       </c>
+      <c r="K192">
+        <v>6009</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8856,6 +9434,9 @@
       <c r="J193">
         <v>0</v>
       </c>
+      <c r="K193">
+        <v>399</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8900,6 +9481,9 @@
       <c r="J194">
         <v>4</v>
       </c>
+      <c r="K194">
+        <v>1221</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8944,6 +9528,9 @@
       <c r="J195">
         <v>0</v>
       </c>
+      <c r="K195">
+        <v>223</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8988,6 +9575,9 @@
       <c r="J196">
         <v>0</v>
       </c>
+      <c r="K196">
+        <v>2813</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9032,6 +9622,9 @@
       <c r="J197">
         <v>0</v>
       </c>
+      <c r="K197">
+        <v>165</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9076,6 +9669,9 @@
       <c r="J198">
         <v>0</v>
       </c>
+      <c r="K198">
+        <v>209</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9120,6 +9716,9 @@
       <c r="J199">
         <v>25</v>
       </c>
+      <c r="K199">
+        <v>6557</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9164,6 +9763,9 @@
       <c r="J200">
         <v>104</v>
       </c>
+      <c r="K200">
+        <v>551</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9208,6 +9810,9 @@
       <c r="J201">
         <v>0</v>
       </c>
+      <c r="K201">
+        <v>570</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9252,6 +9857,9 @@
       <c r="J202">
         <v>0</v>
       </c>
+      <c r="K202">
+        <v>663</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -9296,6 +9904,9 @@
       <c r="J203">
         <v>0</v>
       </c>
+      <c r="K203">
+        <v>125</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9340,6 +9951,9 @@
       <c r="J204">
         <v>0</v>
       </c>
+      <c r="K204">
+        <v>729</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9384,6 +9998,9 @@
       <c r="J205">
         <v>364</v>
       </c>
+      <c r="K205">
+        <v>1091</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9428,6 +10045,9 @@
       <c r="J206">
         <v>0</v>
       </c>
+      <c r="K206">
+        <v>1468</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9472,6 +10092,9 @@
       <c r="J207">
         <v>0</v>
       </c>
+      <c r="K207">
+        <v>424</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9516,6 +10139,9 @@
       <c r="J208">
         <v>0</v>
       </c>
+      <c r="K208">
+        <v>818</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9560,6 +10186,9 @@
       <c r="J209">
         <v>0</v>
       </c>
+      <c r="K209">
+        <v>974</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9604,6 +10233,9 @@
       <c r="J210">
         <v>0</v>
       </c>
+      <c r="K210">
+        <v>315</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9648,6 +10280,9 @@
       <c r="J211">
         <v>0</v>
       </c>
+      <c r="K211">
+        <v>2515</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9692,6 +10327,9 @@
       <c r="J212">
         <v>0</v>
       </c>
+      <c r="K212">
+        <v>1361</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9736,6 +10374,9 @@
       <c r="J213">
         <v>0</v>
       </c>
+      <c r="K213">
+        <v>443</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9780,6 +10421,9 @@
       <c r="J214">
         <v>0</v>
       </c>
+      <c r="K214">
+        <v>596</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9824,6 +10468,9 @@
       <c r="J215">
         <v>0</v>
       </c>
+      <c r="K215">
+        <v>1157</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9868,6 +10515,9 @@
       <c r="J216">
         <v>0</v>
       </c>
+      <c r="K216">
+        <v>2419</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9912,6 +10562,9 @@
       <c r="J217">
         <v>0</v>
       </c>
+      <c r="K217">
+        <v>1378</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9956,6 +10609,9 @@
       <c r="J218">
         <v>0</v>
       </c>
+      <c r="K218">
+        <v>218</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10000,6 +10656,9 @@
       <c r="J219">
         <v>0</v>
       </c>
+      <c r="K219">
+        <v>911</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10044,6 +10703,9 @@
       <c r="J220">
         <v>0</v>
       </c>
+      <c r="K220">
+        <v>219</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -10088,6 +10750,9 @@
       <c r="J221">
         <v>0</v>
       </c>
+      <c r="K221">
+        <v>477</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -10132,6 +10797,9 @@
       <c r="J222">
         <v>0</v>
       </c>
+      <c r="K222">
+        <v>2069</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -10176,6 +10844,9 @@
       <c r="J223">
         <v>0</v>
       </c>
+      <c r="K223">
+        <v>5229</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -10220,6 +10891,9 @@
       <c r="J224">
         <v>0</v>
       </c>
+      <c r="K224">
+        <v>4225</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -10264,6 +10938,9 @@
       <c r="J225">
         <v>0</v>
       </c>
+      <c r="K225">
+        <v>2206</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -10308,6 +10985,9 @@
       <c r="J226">
         <v>0</v>
       </c>
+      <c r="K226">
+        <v>2674</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -10352,6 +11032,9 @@
       <c r="J227">
         <v>0</v>
       </c>
+      <c r="K227">
+        <v>3774</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10396,6 +11079,9 @@
       <c r="J228">
         <v>0</v>
       </c>
+      <c r="K228">
+        <v>2179</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10440,6 +11126,9 @@
       <c r="J229">
         <v>0</v>
       </c>
+      <c r="K229">
+        <v>174</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10484,6 +11173,9 @@
       <c r="J230">
         <v>0</v>
       </c>
+      <c r="K230">
+        <v>697</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10528,6 +11220,9 @@
       <c r="J231">
         <v>0</v>
       </c>
+      <c r="K231">
+        <v>471</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10572,6 +11267,9 @@
       <c r="J232">
         <v>0</v>
       </c>
+      <c r="K232">
+        <v>132</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10616,6 +11314,9 @@
       <c r="J233">
         <v>47</v>
       </c>
+      <c r="K233">
+        <v>2696</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10660,6 +11361,9 @@
       <c r="J234">
         <v>0</v>
       </c>
+      <c r="K234">
+        <v>1402</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10704,6 +11408,9 @@
       <c r="J235">
         <v>0</v>
       </c>
+      <c r="K235">
+        <v>4863</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10748,6 +11455,9 @@
       <c r="J236">
         <v>0</v>
       </c>
+      <c r="K236">
+        <v>284</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10787,10 +11497,13 @@
         <v>320</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J237">
         <v>0</v>
+      </c>
+      <c r="K237">
+        <v>457</v>
       </c>
     </row>
     <row r="238">
@@ -10836,6 +11549,9 @@
       <c r="J238">
         <v>0</v>
       </c>
+      <c r="K238">
+        <v>1055</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10880,6 +11596,9 @@
       <c r="J239">
         <v>0</v>
       </c>
+      <c r="K239">
+        <v>4072</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10924,6 +11643,9 @@
       <c r="J240">
         <v>0</v>
       </c>
+      <c r="K240">
+        <v>3684</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10968,6 +11690,9 @@
       <c r="J241">
         <v>0</v>
       </c>
+      <c r="K241">
+        <v>879</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -11012,6 +11737,9 @@
       <c r="J242">
         <v>0</v>
       </c>
+      <c r="K242">
+        <v>3863</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -11056,6 +11784,9 @@
       <c r="J243">
         <v>142</v>
       </c>
+      <c r="K243">
+        <v>579</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -11100,6 +11831,9 @@
       <c r="J244">
         <v>116</v>
       </c>
+      <c r="K244">
+        <v>1425</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -11144,6 +11878,9 @@
       <c r="J245">
         <v>30</v>
       </c>
+      <c r="K245">
+        <v>2028</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -11188,6 +11925,9 @@
       <c r="J246">
         <v>1</v>
       </c>
+      <c r="K246">
+        <v>8474</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -11232,6 +11972,9 @@
       <c r="J247">
         <v>169</v>
       </c>
+      <c r="K247">
+        <v>7523</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -11276,6 +12019,9 @@
       <c r="J248">
         <v>1583</v>
       </c>
+      <c r="K248">
+        <v>10382</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -11320,6 +12066,9 @@
       <c r="J249">
         <v>0</v>
       </c>
+      <c r="K249">
+        <v>343</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -11364,6 +12113,9 @@
       <c r="J250">
         <v>90</v>
       </c>
+      <c r="K250">
+        <v>1440</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -11408,6 +12160,9 @@
       <c r="J251">
         <v>70</v>
       </c>
+      <c r="K251">
+        <v>1385</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11452,6 +12207,9 @@
       <c r="J252">
         <v>0</v>
       </c>
+      <c r="K252">
+        <v>3007</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11496,6 +12254,9 @@
       <c r="J253">
         <v>196</v>
       </c>
+      <c r="K253">
+        <v>2626</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11540,6 +12301,9 @@
       <c r="J254">
         <v>141</v>
       </c>
+      <c r="K254">
+        <v>2925</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11584,6 +12348,9 @@
       <c r="J255">
         <v>94</v>
       </c>
+      <c r="K255">
+        <v>2186</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11628,6 +12395,9 @@
       <c r="J256">
         <v>120</v>
       </c>
+      <c r="K256">
+        <v>2675</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11672,6 +12442,9 @@
       <c r="J257">
         <v>109</v>
       </c>
+      <c r="K257">
+        <v>6288</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11716,6 +12489,9 @@
       <c r="J258">
         <v>0</v>
       </c>
+      <c r="K258">
+        <v>239</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11760,6 +12536,9 @@
       <c r="J259">
         <v>0</v>
       </c>
+      <c r="K259">
+        <v>2266</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11804,6 +12583,9 @@
       <c r="J260">
         <v>48</v>
       </c>
+      <c r="K260">
+        <v>3265</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11848,6 +12630,9 @@
       <c r="J261">
         <v>88</v>
       </c>
+      <c r="K261">
+        <v>1807</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11892,6 +12677,9 @@
       <c r="J262">
         <v>340</v>
       </c>
+      <c r="K262">
+        <v>5146</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11936,6 +12724,9 @@
       <c r="J263">
         <v>346</v>
       </c>
+      <c r="K263">
+        <v>1234</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11980,6 +12771,9 @@
       <c r="J264">
         <v>35</v>
       </c>
+      <c r="K264">
+        <v>3477</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -12024,6 +12818,9 @@
       <c r="J265">
         <v>0</v>
       </c>
+      <c r="K265">
+        <v>874</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -12068,6 +12865,9 @@
       <c r="J266">
         <v>29</v>
       </c>
+      <c r="K266">
+        <v>1705</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -12112,6 +12912,9 @@
       <c r="J267">
         <v>0</v>
       </c>
+      <c r="K267">
+        <v>1499</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -12156,6 +12959,9 @@
       <c r="J268">
         <v>0</v>
       </c>
+      <c r="K268">
+        <v>152</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -12200,6 +13006,9 @@
       <c r="J269">
         <v>0</v>
       </c>
+      <c r="K269">
+        <v>241</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -12244,6 +13053,9 @@
       <c r="J270">
         <v>0</v>
       </c>
+      <c r="K270">
+        <v>104</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -12283,10 +13095,13 @@
         <v>487</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J271">
         <v>0</v>
+      </c>
+      <c r="K271">
+        <v>357</v>
       </c>
     </row>
     <row r="272">
@@ -12332,6 +13147,9 @@
       <c r="J272">
         <v>0</v>
       </c>
+      <c r="K272">
+        <v>1915</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12376,6 +13194,9 @@
       <c r="J273">
         <v>0</v>
       </c>
+      <c r="K273">
+        <v>801</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -12420,6 +13241,9 @@
       <c r="J274">
         <v>0</v>
       </c>
+      <c r="K274">
+        <v>555</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -12464,6 +13288,9 @@
       <c r="J275">
         <v>0</v>
       </c>
+      <c r="K275">
+        <v>2230</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12508,6 +13335,9 @@
       <c r="J276">
         <v>0</v>
       </c>
+      <c r="K276">
+        <v>1182</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12552,6 +13382,9 @@
       <c r="J277">
         <v>20</v>
       </c>
+      <c r="K277">
+        <v>2863</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12596,6 +13429,9 @@
       <c r="J278">
         <v>8</v>
       </c>
+      <c r="K278">
+        <v>1621</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12640,6 +13476,9 @@
       <c r="J279">
         <v>0</v>
       </c>
+      <c r="K279">
+        <v>986</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12684,6 +13523,9 @@
       <c r="J280">
         <v>22</v>
       </c>
+      <c r="K280">
+        <v>1704</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12728,6 +13570,9 @@
       <c r="J281">
         <v>0</v>
       </c>
+      <c r="K281">
+        <v>1558</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12772,6 +13617,9 @@
       <c r="J282">
         <v>0</v>
       </c>
+      <c r="K282">
+        <v>1603</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12816,6 +13664,9 @@
       <c r="J283">
         <v>0</v>
       </c>
+      <c r="K283">
+        <v>455</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12860,6 +13711,9 @@
       <c r="J284">
         <v>0</v>
       </c>
+      <c r="K284">
+        <v>440</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12904,6 +13758,9 @@
       <c r="J285">
         <v>0</v>
       </c>
+      <c r="K285">
+        <v>2044</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12948,6 +13805,9 @@
       <c r="J286">
         <v>62</v>
       </c>
+      <c r="K286">
+        <v>145</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12992,6 +13852,9 @@
       <c r="J287">
         <v>0</v>
       </c>
+      <c r="K287">
+        <v>1930</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -13036,6 +13899,9 @@
       <c r="J288">
         <v>0</v>
       </c>
+      <c r="K288">
+        <v>1565</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -13080,6 +13946,9 @@
       <c r="J289">
         <v>0</v>
       </c>
+      <c r="K289">
+        <v>76</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -13124,6 +13993,9 @@
       <c r="J290">
         <v>0</v>
       </c>
+      <c r="K290">
+        <v>295</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -13168,6 +14040,9 @@
       <c r="J291">
         <v>0</v>
       </c>
+      <c r="K291">
+        <v>1803</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -13212,6 +14087,9 @@
       <c r="J292">
         <v>44</v>
       </c>
+      <c r="K292">
+        <v>4483</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -13256,6 +14134,9 @@
       <c r="J293">
         <v>51</v>
       </c>
+      <c r="K293">
+        <v>1248</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -13300,6 +14181,9 @@
       <c r="J294">
         <v>0</v>
       </c>
+      <c r="K294">
+        <v>122</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -13344,6 +14228,9 @@
       <c r="J295">
         <v>0</v>
       </c>
+      <c r="K295">
+        <v>270</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -13388,6 +14275,9 @@
       <c r="J296">
         <v>20</v>
       </c>
+      <c r="K296">
+        <v>599</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -13432,6 +14322,9 @@
       <c r="J297">
         <v>0</v>
       </c>
+      <c r="K297">
+        <v>603</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -13476,6 +14369,9 @@
       <c r="J298">
         <v>0</v>
       </c>
+      <c r="K298">
+        <v>4234</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13520,6 +14416,9 @@
       <c r="J299">
         <v>0</v>
       </c>
+      <c r="K299">
+        <v>1491</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13564,6 +14463,9 @@
       <c r="J300">
         <v>0</v>
       </c>
+      <c r="K300">
+        <v>3255</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13608,6 +14510,9 @@
       <c r="J301">
         <v>0</v>
       </c>
+      <c r="K301">
+        <v>2496</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13652,6 +14557,9 @@
       <c r="J302">
         <v>0</v>
       </c>
+      <c r="K302">
+        <v>938</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13696,6 +14604,9 @@
       <c r="J303">
         <v>134</v>
       </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13740,6 +14651,9 @@
       <c r="J304">
         <v>0</v>
       </c>
+      <c r="K304">
+        <v>422</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13784,6 +14698,9 @@
       <c r="J305">
         <v>0</v>
       </c>
+      <c r="K305">
+        <v>1661</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13828,6 +14745,9 @@
       <c r="J306">
         <v>0</v>
       </c>
+      <c r="K306">
+        <v>3663</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13871,6 +14791,9 @@
       </c>
       <c r="J307">
         <v>0</v>
+      </c>
+      <c r="K307">
+        <v>5461</v>
       </c>
     </row>
   </sheetData>
